--- a/06-03-2023/data/output/xlsx/sample_0/category__16.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__16.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="128">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -58,6 +58,30 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
@@ -85,28 +109,133 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
@@ -115,6 +244,30 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
@@ -145,9 +298,6 @@
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
@@ -178,117 +328,36 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
@@ -296,75 +365,6 @@
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -520,30 +520,78 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$7</c:f>
+              <c:f>AddsSubs!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$7</c:f>
+              <c:f>AddsSubs!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.4136874361593463</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.3970944309927361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2880258899676376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2323232323232323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.189873417721519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05555555555555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,10 +712,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$8</c:f>
+              <c:f>MultsDivs!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -676,16 +724,40 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$8</c:f>
+              <c:f>MultsDivs!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.2513368983957219</c:v>
                 </c:pt>
@@ -693,6 +765,30 @@
                   <c:v>0.2676056338028169</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2258064516129032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2191780821917808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1351351351351351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2352941176470588</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -814,30 +910,78 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$7</c:f>
+              <c:f>Equations!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$7</c:f>
+              <c:f>Equations!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.4142427281845537</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.4167507568113017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3766233766233766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.313953488372093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2450980392156863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2132352941176471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2173913043478261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2592592592592592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05882352941176471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,10 +1102,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$10</c:f>
+              <c:f>Decimals!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -976,16 +1120,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$10</c:f>
+              <c:f>Decimals!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.3247588424437299</c:v>
                 </c:pt>
@@ -993,12 +1161,36 @@
                   <c:v>0.2703252032520325</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2383561643835616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1739130434782609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1676646706586826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126984126984127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07058823529411765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0975609756097561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09677419354838709</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.1304347826086956</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1120,30 +1312,60 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$7</c:f>
+              <c:f>Unknowns!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$7</c:f>
+              <c:f>Unknowns!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.4138276553106213</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.4011713030746706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1684210526315789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08695652173913043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.07142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09090909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,30 +1486,54 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.3417085427135678</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1847133757961783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2093023255813954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1176470588235294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,13 +2192,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.2880258899676376</v>
       </c>
       <c r="E5" s="1">
         <v>0.4138276553106213</v>
@@ -1967,13 +2213,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="E6" s="1">
         <v>0.4138276553106213</v>
@@ -1988,13 +2234,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="E7" s="1">
         <v>0.4138276553106213</v>
@@ -2009,13 +2255,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="E8" s="1">
         <v>0.4138276553106213</v>
@@ -2030,13 +2276,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E9" s="1">
         <v>0.4138276553106213</v>
@@ -2051,13 +2297,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="E10" s="1">
         <v>0.4138276553106213</v>
@@ -2072,13 +2318,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E11" s="1">
         <v>0.4138276553106213</v>
@@ -2093,13 +2339,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E12" s="1">
         <v>0.4138276553106213</v>
@@ -2114,7 +2360,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2135,13 +2381,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.2880258899676376</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0.4138276553106213</v>
@@ -2156,13 +2402,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.2323232323232323</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0.4138276553106213</v>
@@ -2177,13 +2423,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.1809523809523809</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0.4138276553106213</v>
@@ -2198,13 +2444,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.189873417721519</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0.4138276553106213</v>
@@ -2219,13 +2465,13 @@
         <v>25</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0.1923076923076923</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0.4138276553106213</v>
@@ -2240,13 +2486,13 @@
         <v>26</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0.4138276553106213</v>
@@ -2261,13 +2507,13 @@
         <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0.4138276553106213</v>
@@ -2282,13 +2528,13 @@
         <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0.4138276553106213</v>
@@ -2303,13 +2549,13 @@
         <v>29</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.3247588424437299</v>
+        <v>0.2513368983957219</v>
       </c>
       <c r="E22" s="1">
         <v>0.4138276553106213</v>
@@ -2324,13 +2570,13 @@
         <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.2703252032520325</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="E23" s="1">
         <v>0.4138276553106213</v>
@@ -2345,13 +2591,13 @@
         <v>31</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.1304347826086956</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="E24" s="1">
         <v>0.4138276553106213</v>
@@ -2366,13 +2612,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.2</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="E25" s="1">
         <v>0.4138276553106213</v>
@@ -2387,13 +2633,13 @@
         <v>33</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.1</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E26" s="1">
         <v>0.4138276553106213</v>
@@ -2408,13 +2654,13 @@
         <v>34</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="E27" s="1">
         <v>0.4138276553106213</v>
@@ -2429,13 +2675,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E28" s="1">
         <v>0.4138276553106213</v>
@@ -2450,13 +2696,13 @@
         <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E29" s="1">
         <v>0.4138276553106213</v>
@@ -2471,13 +2717,13 @@
         <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E30" s="1">
         <v>0.4138276553106213</v>
@@ -2492,13 +2738,13 @@
         <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E31" s="1">
         <v>0.4138276553106213</v>
@@ -2513,13 +2759,13 @@
         <v>39</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E32" s="1">
         <v>0.4138276553106213</v>
@@ -2555,13 +2801,13 @@
         <v>41</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.2383561643835616</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0.4138276553106213</v>
@@ -2576,7 +2822,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2597,20 +2843,22 @@
         <v>43</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.4142427281845537</v>
       </c>
       <c r="E36" s="1">
         <v>0.4138276553106213</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
+      <c r="F36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.4167507568113017</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2618,20 +2866,22 @@
         <v>44</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.4167507568113017</v>
       </c>
       <c r="E37" s="1">
         <v>0.4138276553106213</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
+      <c r="F37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.4167507568113017</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2639,13 +2889,13 @@
         <v>45</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="E38" s="1">
         <v>0.4138276553106213</v>
@@ -2660,13 +2910,13 @@
         <v>46</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.313953488372093</v>
       </c>
       <c r="E39" s="1">
         <v>0.4138276553106213</v>
@@ -2681,13 +2931,13 @@
         <v>47</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="E40" s="1">
         <v>0.4138276553106213</v>
@@ -2702,13 +2952,13 @@
         <v>48</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.2132352941176471</v>
       </c>
       <c r="E41" s="1">
         <v>0.4138276553106213</v>
@@ -2723,13 +2973,13 @@
         <v>49</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E42" s="1">
         <v>0.4138276553106213</v>
@@ -2744,13 +2994,13 @@
         <v>50</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E43" s="1">
         <v>0.4138276553106213</v>
@@ -2765,13 +3015,13 @@
         <v>51</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E44" s="1">
         <v>0.4138276553106213</v>
@@ -2786,13 +3036,13 @@
         <v>52</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.1739130434782609</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E45" s="1">
         <v>0.4138276553106213</v>
@@ -2807,13 +3057,13 @@
         <v>53</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.1676646706586826</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0.4138276553106213</v>
@@ -2828,13 +3078,13 @@
         <v>54</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0.126984126984127</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0.4138276553106213</v>
@@ -2849,13 +3099,13 @@
         <v>55</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0.07058823529411765</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0.4138276553106213</v>
@@ -2870,13 +3120,13 @@
         <v>56</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0.4138276553106213</v>
@@ -2891,13 +3141,13 @@
         <v>57</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.0975609756097561</v>
+        <v>0.3417085427135678</v>
       </c>
       <c r="E50" s="1">
         <v>0.4138276553106213</v>
@@ -2912,13 +3162,13 @@
         <v>58</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.09677419354838709</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="E51" s="1">
         <v>0.4138276553106213</v>
@@ -2933,22 +3183,20 @@
         <v>59</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.4142427281845537</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="E52" s="1">
         <v>0.4138276553106213</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.4167507568113017</v>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2956,22 +3204,20 @@
         <v>60</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.4167507568113017</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="E53" s="1">
         <v>0.4138276553106213</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.4167507568113017</v>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2979,13 +3225,13 @@
         <v>61</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E54" s="1">
         <v>0.4138276553106213</v>
@@ -3000,13 +3246,13 @@
         <v>62</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E55" s="1">
         <v>0.4138276553106213</v>
@@ -3021,7 +3267,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -3042,7 +3288,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3063,13 +3309,13 @@
         <v>65</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.3766233766233766</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0.4138276553106213</v>
@@ -3084,13 +3330,13 @@
         <v>66</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.313953488372093</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0.4138276553106213</v>
@@ -3105,13 +3351,13 @@
         <v>67</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.2450980392156863</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0.4138276553106213</v>
@@ -3126,13 +3372,13 @@
         <v>68</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.2132352941176471</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0.4138276553106213</v>
@@ -3147,13 +3393,13 @@
         <v>69</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.2173913043478261</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>0.4138276553106213</v>
@@ -3168,13 +3414,13 @@
         <v>70</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.2592592592592592</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
         <v>0.4138276553106213</v>
@@ -3189,13 +3435,13 @@
         <v>71</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
         <v>0.4138276553106213</v>
@@ -3210,13 +3456,13 @@
         <v>72</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.05882352941176471</v>
+        <v>0.3247588424437299</v>
       </c>
       <c r="E65" s="1">
         <v>0.4138276553106213</v>
@@ -3231,13 +3477,13 @@
         <v>73</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.2513368983957219</v>
+        <v>0.2703252032520325</v>
       </c>
       <c r="E66" s="1">
         <v>0.4138276553106213</v>
@@ -3252,13 +3498,13 @@
         <v>74</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.2676056338028169</v>
+        <v>0.2383561643835616</v>
       </c>
       <c r="E67" s="1">
         <v>0.4138276553106213</v>
@@ -3273,13 +3519,13 @@
         <v>75</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E68" s="1">
         <v>0.4138276553106213</v>
@@ -3294,13 +3540,13 @@
         <v>76</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.1676646706586826</v>
       </c>
       <c r="E69" s="1">
         <v>0.4138276553106213</v>
@@ -3315,13 +3561,13 @@
         <v>77</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="E70" s="1">
         <v>0.4138276553106213</v>
@@ -3336,13 +3582,13 @@
         <v>78</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="E71" s="1">
         <v>0.4138276553106213</v>
@@ -3357,13 +3603,13 @@
         <v>79</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.2258064516129032</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E72" s="1">
         <v>0.4138276553106213</v>
@@ -3378,13 +3624,13 @@
         <v>80</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.2191780821917808</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E73" s="1">
         <v>0.4138276553106213</v>
@@ -3399,13 +3645,13 @@
         <v>81</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.2037037037037037</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E74" s="1">
         <v>0.4138276553106213</v>
@@ -3420,13 +3666,13 @@
         <v>82</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.1351351351351351</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E75" s="1">
         <v>0.4138276553106213</v>
@@ -3441,13 +3687,13 @@
         <v>83</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.2272727272727273</v>
+        <v>0.2</v>
       </c>
       <c r="E76" s="1">
         <v>0.4138276553106213</v>
@@ -3462,13 +3708,13 @@
         <v>84</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0.2352941176470588</v>
+        <v>0.1</v>
       </c>
       <c r="E77" s="1">
         <v>0.4138276553106213</v>
@@ -3483,13 +3729,13 @@
         <v>85</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
       </c>
       <c r="D78" s="1">
-        <v>0.3636363636363636</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
         <v>0.4138276553106213</v>
@@ -3504,13 +3750,13 @@
         <v>86</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
       </c>
       <c r="D79" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
         <v>0.4138276553106213</v>
@@ -3525,13 +3771,13 @@
         <v>87</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.4138276553106213</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
         <v>0.4138276553106213</v>
@@ -3546,13 +3792,13 @@
         <v>88</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.4011713030746706</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
         <v>0.4138276553106213</v>
@@ -3567,7 +3813,7 @@
         <v>89</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3588,7 +3834,7 @@
         <v>90</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3609,7 +3855,7 @@
         <v>91</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3630,13 +3876,13 @@
         <v>92</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.1684210526315789</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <v>0.4138276553106213</v>
@@ -3651,13 +3897,13 @@
         <v>93</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
         <v>0.4138276553106213</v>
@@ -3672,13 +3918,13 @@
         <v>94</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <v>0.4138276553106213</v>
@@ -3693,13 +3939,13 @@
         <v>95</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E88" s="1">
         <v>0.4138276553106213</v>
@@ -3714,13 +3960,13 @@
         <v>96</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
       </c>
       <c r="D89" s="1">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1">
         <v>0.4138276553106213</v>
@@ -3735,7 +3981,7 @@
         <v>97</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3756,7 +4002,7 @@
         <v>98</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -3777,7 +4023,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3798,13 +4044,13 @@
         <v>100</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.3417085427135678</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0.4138276553106213</v>
@@ -3819,13 +4065,13 @@
         <v>101</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.1847133757961783</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0.4138276553106213</v>
@@ -3840,13 +4086,13 @@
         <v>102</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.4138276553106213</v>
       </c>
       <c r="E95" s="1">
         <v>0.4138276553106213</v>
@@ -3861,13 +4107,13 @@
         <v>103</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.4011713030746706</v>
       </c>
       <c r="E96" s="1">
         <v>0.4138276553106213</v>
@@ -3882,13 +4128,13 @@
         <v>104</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="E97" s="1">
         <v>0.4138276553106213</v>
@@ -3903,13 +4149,13 @@
         <v>105</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E98" s="1">
         <v>0.4138276553106213</v>
@@ -3924,13 +4170,13 @@
         <v>106</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E99" s="1">
         <v>0.4138276553106213</v>
@@ -3945,13 +4191,13 @@
         <v>107</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.1866666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E100" s="1">
         <v>0.4138276553106213</v>
@@ -3966,13 +4212,13 @@
         <v>108</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0.2093023255813954</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E101" s="1">
         <v>0.4138276553106213</v>
@@ -3987,13 +4233,13 @@
         <v>109</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1">
         <v>0.4138276553106213</v>
@@ -4008,13 +4254,13 @@
         <v>110</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="E103" s="1">
         <v>0.4138276553106213</v>
@@ -4029,7 +4275,7 @@
         <v>111</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4050,7 +4296,7 @@
         <v>112</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4071,7 +4317,7 @@
         <v>113</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4092,7 +4338,7 @@
         <v>114</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4115,7 +4361,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4256,6 +4502,350 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.2880258899676376</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.1258017653429837</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2323232323232323</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.1815044229873889</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1809523809523809</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.2328752743582403</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.189873417721519</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.2239542375891023</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.2215199630029289</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.175</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.2388276553106213</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.3683731098560758</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.3582720997550657</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4264,7 +4854,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4321,7 +4911,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4364,7 +4954,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4407,22 +4997,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="E6" s="3">
         <v>0.4138276553106213</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.2138276553106213</v>
+        <v>-0.188021203697718</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4445,6 +5035,350 @@
       </c>
       <c r="L6" s="1">
         <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2191780821917808</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.1946495731188405</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2037037037037037</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.2101239516069176</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1351351351351351</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.2786925201754861</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.186554928037894</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.1785335376635624</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.05019129167425762</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.2888276553106213</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.2138276553106213</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -4456,7 +5390,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4513,7 +5447,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4556,7 +5490,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4594,6 +5528,350 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.03720427868724463</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.313953488372093</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.09987416693852824</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2450980392156863</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.168729616094935</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.2132352941176471</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.2005923611929742</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.1964363509627952</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.154568396051362</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.1281133695963356</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.3550041258988565</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -4605,7 +5883,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4662,7 +5940,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -4705,7 +5983,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -4748,22 +6026,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1304347826086956</v>
+        <v>0.2383561643835616</v>
       </c>
       <c r="E6" s="3">
         <v>0.4138276553106213</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.2833928727019256</v>
+        <v>-0.1754714909270596</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4791,22 +6069,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E7" s="3">
         <v>0.4138276553106213</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.2138276553106213</v>
+        <v>-0.2399146118323604</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4834,22 +6112,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1</v>
+        <v>0.1676646706586826</v>
       </c>
       <c r="E8" s="3">
         <v>0.4138276553106213</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.3138276553106213</v>
+        <v>-0.2461629846519386</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4872,6 +6150,350 @@
       </c>
       <c r="L8" s="1">
         <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.2868435283264943</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.07058823529411765</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.3432394200165036</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.3369045783875443</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.3162666797008652</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.09677419354838709</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.3170534617622341</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.2833928727019256</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.2138276553106213</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-0.3138276553106213</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
         <v>0</v>
       </c>
     </row>
@@ -4883,7 +6505,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4940,7 +6562,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -4983,7 +6605,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -5021,6 +6643,221 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1684210526315789</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.2454066026790423</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.3369045783875443</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.3268711335714908</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.3423990838820499</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.3229185644015303</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>
@@ -5032,7 +6869,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5089,7 +6926,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -5132,7 +6969,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -5170,6 +7007,178 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1866666666666667</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.2271609886439546</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2093023255813954</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.2045253297292259</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.2938276553106213</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="3">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4138276553106213</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.2961805964870918</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
         <v>0</v>
       </c>
     </row>

--- a/06-03-2023/data/output/xlsx/sample_0/category__16.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__16.xlsx
@@ -109,6 +109,138 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_decimals__0</t>
+  </si>
+  <si>
+    <t>num_of_decimals__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__11</t>
+  </si>
+  <si>
+    <t>num_of_decimals__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__13</t>
+  </si>
+  <si>
+    <t>num_of_decimals__14</t>
+  </si>
+  <si>
+    <t>num_of_decimals__15</t>
+  </si>
+  <si>
+    <t>num_of_decimals__16</t>
+  </si>
+  <si>
+    <t>num_of_decimals__17</t>
+  </si>
+  <si>
+    <t>num_of_decimals__18</t>
+  </si>
+  <si>
+    <t>num_of_decimals__19</t>
+  </si>
+  <si>
+    <t>num_of_decimals__20</t>
+  </si>
+  <si>
+    <t>num_of_decimals__21</t>
+  </si>
+  <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
@@ -151,46 +283,43 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
+    <t>num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__11</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__0</t>
@@ -236,135 +365,6 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_decimals__11</t>
-  </si>
-  <si>
-    <t>num_of_decimals__12</t>
-  </si>
-  <si>
-    <t>num_of_decimals__13</t>
-  </si>
-  <si>
-    <t>num_of_decimals__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__15</t>
-  </si>
-  <si>
-    <t>num_of_decimals__16</t>
-  </si>
-  <si>
-    <t>num_of_decimals__17</t>
-  </si>
-  <si>
-    <t>num_of_decimals__18</t>
-  </si>
-  <si>
-    <t>num_of_decimals__19</t>
-  </si>
-  <si>
-    <t>num_of_decimals__20</t>
-  </si>
-  <si>
-    <t>num_of_decimals__21</t>
-  </si>
-  <si>
-    <t>num_of_decimals__22</t>
-  </si>
-  <si>
-    <t>num_of_decimals__23</t>
-  </si>
-  <si>
-    <t>num_of_decimals__24</t>
-  </si>
-  <si>
-    <t>num_of_decimals__25</t>
-  </si>
-  <si>
-    <t>num_of_decimals__26</t>
-  </si>
-  <si>
-    <t>num_of_decimals__27</t>
-  </si>
-  <si>
-    <t>num_of_decimals__28</t>
-  </si>
-  <si>
-    <t>num_of_decimals__29</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__11</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -2549,13 +2549,13 @@
         <v>29</v>
       </c>
       <c r="B22" s="1">
-        <v>187</v>
+        <v>622</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.2513368983957219</v>
+        <v>0.3247588424437299</v>
       </c>
       <c r="E22" s="1">
         <v>0.4138276553106213</v>
@@ -2570,13 +2570,13 @@
         <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>142</v>
+        <v>492</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.2676056338028169</v>
+        <v>0.2703252032520325</v>
       </c>
       <c r="E23" s="1">
         <v>0.4138276553106213</v>
@@ -2591,13 +2591,13 @@
         <v>31</v>
       </c>
       <c r="B24" s="1">
-        <v>93</v>
+        <v>365</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.2258064516129032</v>
+        <v>0.2383561643835616</v>
       </c>
       <c r="E24" s="1">
         <v>0.4138276553106213</v>
@@ -2612,13 +2612,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="1">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.2191780821917808</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E25" s="1">
         <v>0.4138276553106213</v>
@@ -2633,13 +2633,13 @@
         <v>33</v>
       </c>
       <c r="B26" s="1">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.2037037037037037</v>
+        <v>0.1676646706586826</v>
       </c>
       <c r="E26" s="1">
         <v>0.4138276553106213</v>
@@ -2654,13 +2654,13 @@
         <v>34</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1351351351351351</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="E27" s="1">
         <v>0.4138276553106213</v>
@@ -2675,13 +2675,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.2272727272727273</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="E28" s="1">
         <v>0.4138276553106213</v>
@@ -2696,13 +2696,13 @@
         <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.2352941176470588</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E29" s="1">
         <v>0.4138276553106213</v>
@@ -2717,13 +2717,13 @@
         <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.3636363636363636</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E30" s="1">
         <v>0.4138276553106213</v>
@@ -2738,13 +2738,13 @@
         <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.125</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E31" s="1">
         <v>0.4138276553106213</v>
@@ -2759,13 +2759,13 @@
         <v>39</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.2</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E32" s="1">
         <v>0.4138276553106213</v>
@@ -2780,13 +2780,13 @@
         <v>40</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E33" s="1">
         <v>0.4138276553106213</v>
@@ -2801,13 +2801,13 @@
         <v>41</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="1">
         <v>0.4138276553106213</v>
@@ -2822,7 +2822,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2843,22 +2843,20 @@
         <v>43</v>
       </c>
       <c r="B36" s="1">
-        <v>997</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.4142427281845537</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0.4138276553106213</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.4167507568113017</v>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2866,22 +2864,20 @@
         <v>44</v>
       </c>
       <c r="B37" s="1">
-        <v>991</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.4167507568113017</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0.4138276553106213</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.4167507568113017</v>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2889,13 +2885,13 @@
         <v>45</v>
       </c>
       <c r="B38" s="1">
-        <v>539</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.3766233766233766</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0.4138276553106213</v>
@@ -2910,13 +2906,13 @@
         <v>46</v>
       </c>
       <c r="B39" s="1">
-        <v>344</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.313953488372093</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0.4138276553106213</v>
@@ -2931,13 +2927,13 @@
         <v>47</v>
       </c>
       <c r="B40" s="1">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.2450980392156863</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0.4138276553106213</v>
@@ -2952,13 +2948,13 @@
         <v>48</v>
       </c>
       <c r="B41" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0.2132352941176471</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>0.4138276553106213</v>
@@ -2973,13 +2969,13 @@
         <v>49</v>
       </c>
       <c r="B42" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0.2173913043478261</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0.4138276553106213</v>
@@ -2994,13 +2990,13 @@
         <v>50</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0.2592592592592592</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
         <v>0.4138276553106213</v>
@@ -3015,13 +3011,13 @@
         <v>51</v>
       </c>
       <c r="B44" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>0.4138276553106213</v>
@@ -3036,13 +3032,13 @@
         <v>52</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0.4138276553106213</v>
@@ -3057,7 +3053,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -3078,7 +3074,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -3141,13 +3137,13 @@
         <v>57</v>
       </c>
       <c r="B50" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.3417085427135678</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0.4138276553106213</v>
@@ -3162,13 +3158,13 @@
         <v>58</v>
       </c>
       <c r="B51" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.1847133757961783</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0.4138276553106213</v>
@@ -3183,20 +3179,22 @@
         <v>59</v>
       </c>
       <c r="B52" s="1">
-        <v>75</v>
+        <v>997</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.1866666666666667</v>
+        <v>0.4142427281845537</v>
       </c>
       <c r="E52" s="1">
         <v>0.4138276553106213</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
+      <c r="F52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.4167507568113017</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3204,20 +3202,22 @@
         <v>60</v>
       </c>
       <c r="B53" s="1">
-        <v>43</v>
+        <v>991</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.2093023255813954</v>
+        <v>0.4167507568113017</v>
       </c>
       <c r="E53" s="1">
         <v>0.4138276553106213</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
+      <c r="F53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.4167507568113017</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3225,13 +3225,13 @@
         <v>61</v>
       </c>
       <c r="B54" s="1">
-        <v>25</v>
+        <v>539</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.12</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="E54" s="1">
         <v>0.4138276553106213</v>
@@ -3246,13 +3246,13 @@
         <v>62</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.1176470588235294</v>
+        <v>0.313953488372093</v>
       </c>
       <c r="E55" s="1">
         <v>0.4138276553106213</v>
@@ -3267,13 +3267,13 @@
         <v>63</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="E56" s="1">
         <v>0.4138276553106213</v>
@@ -3288,13 +3288,13 @@
         <v>64</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.2132352941176471</v>
       </c>
       <c r="E57" s="1">
         <v>0.4138276553106213</v>
@@ -3309,13 +3309,13 @@
         <v>65</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E58" s="1">
         <v>0.4138276553106213</v>
@@ -3330,13 +3330,13 @@
         <v>66</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E59" s="1">
         <v>0.4138276553106213</v>
@@ -3351,13 +3351,13 @@
         <v>67</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E60" s="1">
         <v>0.4138276553106213</v>
@@ -3372,13 +3372,13 @@
         <v>68</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E61" s="1">
         <v>0.4138276553106213</v>
@@ -3393,7 +3393,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3414,7 +3414,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3456,13 +3456,13 @@
         <v>72</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.3247588424437299</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0.4138276553106213</v>
@@ -3477,13 +3477,13 @@
         <v>73</v>
       </c>
       <c r="B66" s="1">
-        <v>492</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.2703252032520325</v>
+        <v>0.2513368983957219</v>
       </c>
       <c r="E66" s="1">
         <v>0.4138276553106213</v>
@@ -3498,13 +3498,13 @@
         <v>74</v>
       </c>
       <c r="B67" s="1">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.2383561643835616</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="E67" s="1">
         <v>0.4138276553106213</v>
@@ -3519,13 +3519,13 @@
         <v>75</v>
       </c>
       <c r="B68" s="1">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.1739130434782609</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="E68" s="1">
         <v>0.4138276553106213</v>
@@ -3540,13 +3540,13 @@
         <v>76</v>
       </c>
       <c r="B69" s="1">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.1676646706586826</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="E69" s="1">
         <v>0.4138276553106213</v>
@@ -3561,13 +3561,13 @@
         <v>77</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.126984126984127</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E70" s="1">
         <v>0.4138276553106213</v>
@@ -3582,13 +3582,13 @@
         <v>78</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.07058823529411765</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="E71" s="1">
         <v>0.4138276553106213</v>
@@ -3603,13 +3603,13 @@
         <v>79</v>
       </c>
       <c r="B72" s="1">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.07692307692307693</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E72" s="1">
         <v>0.4138276553106213</v>
@@ -3624,13 +3624,13 @@
         <v>80</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.0975609756097561</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E73" s="1">
         <v>0.4138276553106213</v>
@@ -3645,13 +3645,13 @@
         <v>81</v>
       </c>
       <c r="B74" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.09677419354838709</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E74" s="1">
         <v>0.4138276553106213</v>
@@ -3666,13 +3666,13 @@
         <v>82</v>
       </c>
       <c r="B75" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
       <c r="E75" s="1">
         <v>0.4138276553106213</v>
@@ -3687,7 +3687,7 @@
         <v>83</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3708,13 +3708,13 @@
         <v>84</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1">
         <v>0.4138276553106213</v>
@@ -3729,7 +3729,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3750,7 +3750,7 @@
         <v>86</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3771,13 +3771,13 @@
         <v>87</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>998</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.4138276553106213</v>
       </c>
       <c r="E80" s="1">
         <v>0.4138276553106213</v>
@@ -3792,13 +3792,13 @@
         <v>88</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
+        <v>683</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.4011713030746706</v>
       </c>
       <c r="E81" s="1">
         <v>0.4138276553106213</v>
@@ -3813,13 +3813,13 @@
         <v>89</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="E82" s="1">
         <v>0.4138276553106213</v>
@@ -3834,13 +3834,13 @@
         <v>90</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E83" s="1">
         <v>0.4138276553106213</v>
@@ -3855,13 +3855,13 @@
         <v>91</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E84" s="1">
         <v>0.4138276553106213</v>
@@ -3876,13 +3876,13 @@
         <v>92</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E85" s="1">
         <v>0.4138276553106213</v>
@@ -3897,13 +3897,13 @@
         <v>93</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E86" s="1">
         <v>0.4138276553106213</v>
@@ -3918,7 +3918,7 @@
         <v>94</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3939,7 +3939,7 @@
         <v>95</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3960,7 +3960,7 @@
         <v>96</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3981,7 +3981,7 @@
         <v>97</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -4044,13 +4044,13 @@
         <v>100</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.3417085427135678</v>
       </c>
       <c r="E93" s="1">
         <v>0.4138276553106213</v>
@@ -4065,13 +4065,13 @@
         <v>101</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="E94" s="1">
         <v>0.4138276553106213</v>
@@ -4086,13 +4086,13 @@
         <v>102</v>
       </c>
       <c r="B95" s="1">
-        <v>998</v>
+        <v>75</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="E95" s="1">
         <v>0.4138276553106213</v>
@@ -4107,13 +4107,13 @@
         <v>103</v>
       </c>
       <c r="B96" s="1">
-        <v>683</v>
+        <v>43</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.4011713030746706</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="E96" s="1">
         <v>0.4138276553106213</v>
@@ -4128,13 +4128,13 @@
         <v>104</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.1684210526315789</v>
+        <v>0.12</v>
       </c>
       <c r="E97" s="1">
         <v>0.4138276553106213</v>
@@ -4149,13 +4149,13 @@
         <v>105</v>
       </c>
       <c r="B98" s="1">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.07692307692307693</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E98" s="1">
         <v>0.4138276553106213</v>
@@ -4170,13 +4170,13 @@
         <v>106</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
         <v>0.4138276553106213</v>
@@ -4191,13 +4191,13 @@
         <v>107</v>
       </c>
       <c r="B100" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
         <v>0.4138276553106213</v>
@@ -4212,13 +4212,13 @@
         <v>108</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
         <v>0.4138276553106213</v>
@@ -4233,7 +4233,7 @@
         <v>109</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4254,7 +4254,7 @@
         <v>110</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3">
         <v>54</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3">
         <v>37</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3">
         <v>22</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3">
         <v>17</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3">
         <v>35</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3">
         <v>17</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3">
         <v>41</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3">
         <v>31</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3">
         <v>23</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3">
         <v>15</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B7" s="3">
         <v>52</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B8" s="3">
         <v>23</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
@@ -6820,7 +6820,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3">
         <v>11</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3">
         <v>43</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3">
         <v>17</v>
